--- a/biology/Mycologie/Lentinus_tigrinus/Lentinus_tigrinus.xlsx
+++ b/biology/Mycologie/Lentinus_tigrinus/Lentinus_tigrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lentinus tigrinus
 Le lentin tigré (Lentinus tigrinus), est une espèce de champignons basidiomycètes de la famille des Polyporaceae, venant souvent en touffes sur troncs et souches de divers feuillus, surtout peupliers et saules.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau, de forme variable, est reconnaissable grâce à ses squamules brun-noir qui le recouvrent.
 Un anneau cortiniforme est présent sur le pied dans la jeunesse. Les lames sont crème à blanc jaunâtre. La saveur est agréable et l'odeur rappelle un peu celle du beurre. C'est un comestible assez agréable à l'état jeune mais qui devient coriace à l'âge adulte, il faudra, lors de la récolte, rejeter les exemplaires plus âgés. Le pied, filandreux et coriace, est de toute façon à rejeter.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est cosmopolite, on la rencontre dans le domaine holarctique dans les zones chaudes à tempérées.
 </t>
